--- a/results/All(27000) config 3.xlsx
+++ b/results/All(27000) config 3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Medien\Dokumente\UNI\Datamining\DataMiningProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Medien\Dokumente\UNI\Datamining\DataMiningProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ABA680-A452-494B-BC4F-9CD99F2F46A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF5E53C-5E51-45D4-B70E-D81D45EE0CC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22440" yWindow="960" windowWidth="18900" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -656,162 +656,162 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -828,130 +828,130 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -965,207 +965,207 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
@@ -1176,82 +1176,82 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1265,13 +1265,13 @@
         <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1285,96 +1285,99 @@
         <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:F36">
+    <sortCondition ref="E1:E36"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>